--- a/AGE(OPE2017)/EJERCICIOS/EXCEL 2010/00 archivos/11 - FUNCIONES DE ESTADÍSTICA/e2010_fun_est_B05.xlsx
+++ b/AGE(OPE2017)/EJERCICIOS/EXCEL 2010/00 archivos/11 - FUNCIONES DE ESTADÍSTICA/e2010_fun_est_B05.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600"/>
+    <workbookView xWindow="9705" yWindow="0" windowWidth="18930" windowHeight="12705"/>
   </bookViews>
   <sheets>
     <sheet name="ESTADÍSITICA RES" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>Puntuación media</t>
   </si>
   <si>
-    <t>Los tres primeros aprobados (A partir de los dato de Total Pruebas)</t>
-  </si>
-  <si>
     <t>Aprobado 2º</t>
   </si>
   <si>
@@ -141,16 +138,19 @@
     <t>Aprobado 3º</t>
   </si>
   <si>
-    <t>Realizar la suma del TOTAL PRUEBAS redondeado a tres decimales</t>
-  </si>
-  <si>
     <t>La posición ocupada a partir de la nota Total Pruebas</t>
   </si>
   <si>
     <t>La nota que aparece con más frecuencia en cada prueba</t>
   </si>
   <si>
-    <t>Media (Total pruebas) de los que están por encima de la puntuación media</t>
+    <t>TOTAL PRUEBAS, es la suma de las dos pruebas redondeado a tres decimales</t>
+  </si>
+  <si>
+    <t>La nota de los tres primeros aprobados (A partir de los dato de Total Pruebas)</t>
+  </si>
+  <si>
+    <t>A partir de TOTAL PRUEBAS, obtener la nota media de aquellos que tengan una nota superior a la puntuación media</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -749,7 +749,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" s="1"/>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14" s="1"/>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="1"/>
     </row>
@@ -800,7 +800,7 @@
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
